--- a/Bit Geeks - Project/Gone Sin Mal (Testing)/GoneSinMal_Test_Case.xlsx
+++ b/Bit Geeks - Project/Gone Sin Mal (Testing)/GoneSinMal_Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gone_Sin_Mal\Final_GoneSinMal\Bit-Geek-Project-Documents-\Bit Geeks - Project\Gone Sin Mal (Testing)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1D85B8-D0F1-47BD-AB86-25560D055EBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE1A3B9-7245-4E80-855D-6A62C98163E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" activeTab="1" xr2:uid="{0C18B1CA-7377-4DAD-81F8-23E85DEB025F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" activeTab="2" xr2:uid="{0C18B1CA-7377-4DAD-81F8-23E85DEB025F}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurant Side" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="183">
   <si>
     <t xml:space="preserve">Title </t>
   </si>
@@ -633,6 +633,10 @@
   </si>
   <si>
     <t>App Log In Testing</t>
+  </si>
+  <si>
+    <t>Enter correct username and correct password 
+and click "Login" button</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3F5A57-EEC8-43F9-B21A-F15755916C0B}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2680,7 +2684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE8992B-4713-413A-9CE6-31C66A5434CC}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2760,7 +2764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>13</v>
       </c>
@@ -3243,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAA496-E45D-49E8-82B3-2109E613F4ED}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3299,20 +3303,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>95</v>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -3321,262 +3325,300 @@
       <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="E8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -3615,247 +3657,313 @@
       <c r="A20" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="E24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
+      <c r="E25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="E26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="E30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
+      <c r="E31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
+      <c r="E32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
         <v>4</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
+      <c r="E33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="E34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>13</v>
       </c>
     </row>
